--- a/design/CL-PFU database design testing.xlsx
+++ b/design/CL-PFU database design testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/TestTargetsDB/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABDCAF3C-8745-3E40-ACCE-2CC63C56D132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456E4737-B60D-A343-800F-BF3CBFD60D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{7D1B523B-6A41-0844-B2C9-E0154220E900}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7D1B523B-6A41-0844-B2C9-E0154220E900}"/>
   </bookViews>
   <sheets>
     <sheet name="Design" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="601">
   <si>
     <t>Energy</t>
   </si>
@@ -1342,261 +1342,21 @@
     <t>Autoproducer CHP plants</t>
   </si>
   <si>
-    <t>Air_compressors</t>
-  </si>
-  <si>
-    <t>Ammonia_synthesizers</t>
-  </si>
-  <si>
-    <t>Bayer_kilns</t>
-  </si>
-  <si>
-    <t>Blast_oxygen_furnaces</t>
-  </si>
-  <si>
-    <t>Bulk_carrier_ships</t>
-  </si>
-  <si>
-    <t>Charcoal_stoves</t>
-  </si>
-  <si>
-    <t>Clinker_kilns</t>
-  </si>
-  <si>
-    <t>Coal_stoves</t>
-  </si>
-  <si>
-    <t>Commercial_electric_ovens</t>
-  </si>
-  <si>
-    <t>Commercial_gas_ovens</t>
-  </si>
-  <si>
-    <t>Commercial_indoor_electric_lamps</t>
-  </si>
-  <si>
-    <t>Commercial_outdoor_electric_lamps</t>
-  </si>
-  <si>
     <t>Computers</t>
   </si>
   <si>
-    <t>Container_ships</t>
-  </si>
-  <si>
-    <t>Diesel_bulldozers</t>
-  </si>
-  <si>
-    <t>Diesel_haulage_trucks</t>
-  </si>
-  <si>
-    <t>Diesel_HDVs</t>
-  </si>
-  <si>
-    <t>Diesel_hydraulic_mobiles</t>
-  </si>
-  <si>
-    <t>Diesel_LDVs</t>
-  </si>
-  <si>
-    <t>Diesel_pumps</t>
-  </si>
-  <si>
-    <t>Diesel_rock_borers</t>
-  </si>
-  <si>
-    <t>Diesel_trains</t>
-  </si>
-  <si>
-    <t>Domestic_aircraft</t>
-  </si>
-  <si>
-    <t>Domestic_appliances</t>
-  </si>
-  <si>
-    <t>Domestic_boats</t>
-  </si>
-  <si>
-    <t>Domestic_electric_lamps</t>
-  </si>
-  <si>
-    <t>Domestic_electric_ovens</t>
-  </si>
-  <si>
-    <t>Domestic_fans</t>
-  </si>
-  <si>
-    <t>Domestic_gas_ovens</t>
-  </si>
-  <si>
-    <t>Electric_arc_furnaces</t>
-  </si>
-  <si>
-    <t>Electric_cable_cranes</t>
-  </si>
-  <si>
-    <t>Electric_cable_shovels</t>
-  </si>
-  <si>
-    <t>Electric_cars</t>
-  </si>
-  <si>
-    <t>Electric_continuous_miners</t>
-  </si>
-  <si>
-    <t>Electric_hand_tools</t>
-  </si>
-  <si>
-    <t>Electric_hydraulic_mobiles</t>
-  </si>
-  <si>
-    <t>Electric_pipeline_gas_compressors</t>
-  </si>
-  <si>
-    <t>Electric_pumps</t>
-  </si>
-  <si>
-    <t>Electric_space_heaters</t>
-  </si>
-  <si>
-    <t>Electric_trains</t>
-  </si>
-  <si>
-    <t>Electric_water_heaters</t>
-  </si>
-  <si>
-    <t>Electro_chemical_processors</t>
-  </si>
-  <si>
-    <t>Electrolytic_smelters</t>
-  </si>
-  <si>
-    <t>Fishing_vessels</t>
-  </si>
-  <si>
-    <t>Gas_pump_jacks</t>
-  </si>
-  <si>
-    <t>Gas_space_heaters</t>
-  </si>
-  <si>
-    <t>Gas_water_heaters</t>
-  </si>
-  <si>
-    <t>Gasoline_LDVs</t>
-  </si>
-  <si>
-    <t>Gasoline_motorcycles</t>
-  </si>
-  <si>
-    <t>General_cargo_ships</t>
-  </si>
-  <si>
-    <t>Heat_machines</t>
-  </si>
-  <si>
-    <t>Heat_pumps</t>
-  </si>
-  <si>
     <t>HVAC</t>
   </si>
   <si>
-    <t>Industrial_electric_lamps</t>
-  </si>
-  <si>
-    <t>Industrial_electric_process_heaters</t>
-  </si>
-  <si>
-    <t>Industrial_fans</t>
-  </si>
-  <si>
-    <t>Industrial_refrigerators</t>
-  </si>
-  <si>
-    <t>International_aircraft</t>
-  </si>
-  <si>
-    <t>Kerosene_lamps</t>
-  </si>
-  <si>
-    <t>Kerosene_stoves</t>
-  </si>
-  <si>
-    <t>LPG_stoves</t>
-  </si>
-  <si>
-    <t>Machine_tools</t>
-  </si>
-  <si>
-    <t>Material_handlers</t>
-  </si>
-  <si>
-    <t>Natural_gas_pipeline_gas_compressors</t>
-  </si>
-  <si>
-    <t>Natural_gas_vehicles</t>
-  </si>
-  <si>
-    <t>Non-energy_consumption</t>
-  </si>
-  <si>
-    <t>Oil_lamps</t>
-  </si>
-  <si>
-    <t>Oil_space_heaters</t>
-  </si>
-  <si>
-    <t>Oil_water_heaters</t>
-  </si>
-  <si>
-    <t>Ore_grinding_mills</t>
-  </si>
-  <si>
-    <t>Paper_machines</t>
-  </si>
-  <si>
     <t>Refrigerators</t>
   </si>
   <si>
-    <t>Room_air_conditioners</t>
-  </si>
-  <si>
-    <t>Small_scale_biomass_boilers</t>
-  </si>
-  <si>
-    <t>Solar_thermal_water_heaters</t>
-  </si>
-  <si>
-    <t>Static_diesel_engines</t>
-  </si>
-  <si>
-    <t>Static_gasoline_engines</t>
-  </si>
-  <si>
-    <t>Steam_boats</t>
-  </si>
-  <si>
-    <t>Steam_cracking_furnaces</t>
-  </si>
-  <si>
-    <t>Steam_trains</t>
-  </si>
-  <si>
-    <t>Tanker_ships</t>
-  </si>
-  <si>
     <t>Televisions</t>
   </si>
   <si>
-    <t>Town_gas_lamps</t>
-  </si>
-  <si>
     <t>Tractors</t>
   </si>
   <si>
-    <t>Wood_stoves</t>
-  </si>
-  <si>
     <t>Energy industry own use</t>
   </si>
   <si>
@@ -1976,6 +1736,243 @@
   </si>
   <si>
     <t>Do you just do a lot of join operations, as needed?</t>
+  </si>
+  <si>
+    <t>Ammonia synthesizers</t>
+  </si>
+  <si>
+    <t>Bayer kilns</t>
+  </si>
+  <si>
+    <t>Blast oxygen furnaces</t>
+  </si>
+  <si>
+    <t>Bulk carrier ships</t>
+  </si>
+  <si>
+    <t>Charcoal stoves</t>
+  </si>
+  <si>
+    <t>Clinker kilns</t>
+  </si>
+  <si>
+    <t>Coal stoves</t>
+  </si>
+  <si>
+    <t>Commercial electric ovens</t>
+  </si>
+  <si>
+    <t>Commercial gas ovens</t>
+  </si>
+  <si>
+    <t>Commercial indoor electric lamps</t>
+  </si>
+  <si>
+    <t>Commercial outdoor electric lamps</t>
+  </si>
+  <si>
+    <t>Container ships</t>
+  </si>
+  <si>
+    <t>Diesel bulldozers</t>
+  </si>
+  <si>
+    <t>Diesel haulage trucks</t>
+  </si>
+  <si>
+    <t>Diesel HDVs</t>
+  </si>
+  <si>
+    <t>Diesel hydraulic mobiles</t>
+  </si>
+  <si>
+    <t>Diesel LDVs</t>
+  </si>
+  <si>
+    <t>Diesel pumps</t>
+  </si>
+  <si>
+    <t>Diesel rock borers</t>
+  </si>
+  <si>
+    <t>Diesel trains</t>
+  </si>
+  <si>
+    <t>Domestic aircraft</t>
+  </si>
+  <si>
+    <t>Domestic appliances</t>
+  </si>
+  <si>
+    <t>Domestic boats</t>
+  </si>
+  <si>
+    <t>Domestic electric lamps</t>
+  </si>
+  <si>
+    <t>Domestic electric ovens</t>
+  </si>
+  <si>
+    <t>Domestic fans</t>
+  </si>
+  <si>
+    <t>Domestic gas ovens</t>
+  </si>
+  <si>
+    <t>Electric arc furnaces</t>
+  </si>
+  <si>
+    <t>Electric cable cranes</t>
+  </si>
+  <si>
+    <t>Electric cable shovels</t>
+  </si>
+  <si>
+    <t>Electric cars</t>
+  </si>
+  <si>
+    <t>Electric continuous miners</t>
+  </si>
+  <si>
+    <t>Electric hand tools</t>
+  </si>
+  <si>
+    <t>Electric hydraulic mobiles</t>
+  </si>
+  <si>
+    <t>Electric pipeline gas compressors</t>
+  </si>
+  <si>
+    <t>Electric pumps</t>
+  </si>
+  <si>
+    <t>Electric space heaters</t>
+  </si>
+  <si>
+    <t>Electric trains</t>
+  </si>
+  <si>
+    <t>Electric water heaters</t>
+  </si>
+  <si>
+    <t>Electro chemical processors</t>
+  </si>
+  <si>
+    <t>Electrolytic smelters</t>
+  </si>
+  <si>
+    <t>Fishing vessels</t>
+  </si>
+  <si>
+    <t>Gas pump jacks</t>
+  </si>
+  <si>
+    <t>Gas space heaters</t>
+  </si>
+  <si>
+    <t>Gas water heaters</t>
+  </si>
+  <si>
+    <t>Gasoline LDVs</t>
+  </si>
+  <si>
+    <t>Gasoline motorcycles</t>
+  </si>
+  <si>
+    <t>General cargo ships</t>
+  </si>
+  <si>
+    <t>Heat machines</t>
+  </si>
+  <si>
+    <t>Industrial electric lamps</t>
+  </si>
+  <si>
+    <t>Industrial electric process heaters</t>
+  </si>
+  <si>
+    <t>Industrial fans</t>
+  </si>
+  <si>
+    <t>Industrial refrigerators</t>
+  </si>
+  <si>
+    <t>International aircraft</t>
+  </si>
+  <si>
+    <t>Kerosene lamps</t>
+  </si>
+  <si>
+    <t>Kerosene stoves</t>
+  </si>
+  <si>
+    <t>LPG stoves</t>
+  </si>
+  <si>
+    <t>Machine tools</t>
+  </si>
+  <si>
+    <t>Material handlers</t>
+  </si>
+  <si>
+    <t>Natural gas pipeline gas compressors</t>
+  </si>
+  <si>
+    <t>Natural gas vehicles</t>
+  </si>
+  <si>
+    <t>Non-energy consumption</t>
+  </si>
+  <si>
+    <t>Oil lamps</t>
+  </si>
+  <si>
+    <t>Oil space heaters</t>
+  </si>
+  <si>
+    <t>Oil water heaters</t>
+  </si>
+  <si>
+    <t>Ore grinding mills</t>
+  </si>
+  <si>
+    <t>Paper machines</t>
+  </si>
+  <si>
+    <t>Room air conditioners</t>
+  </si>
+  <si>
+    <t>Small scale biomass boilers</t>
+  </si>
+  <si>
+    <t>Solar thermal water heaters</t>
+  </si>
+  <si>
+    <t>Static diesel engines</t>
+  </si>
+  <si>
+    <t>Static gasoline engines</t>
+  </si>
+  <si>
+    <t>Steam boats</t>
+  </si>
+  <si>
+    <t>Steam cracking furnaces</t>
+  </si>
+  <si>
+    <t>Steam trains</t>
+  </si>
+  <si>
+    <t>Tanker ships</t>
+  </si>
+  <si>
+    <t>Town gas lamps</t>
+  </si>
+  <si>
+    <t>Wood stoves</t>
+  </si>
+  <si>
+    <t>Air compressors</t>
   </si>
 </sst>
 </file>
@@ -2427,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1652E8C3-254B-7F40-96D6-2C741A6B398E}">
   <dimension ref="A2:DJ184"/>
   <sheetViews>
-    <sheetView topLeftCell="CJ1" workbookViewId="0">
-      <selection activeCell="BU10" sqref="BU10"/>
+    <sheetView tabSelected="1" topLeftCell="AN141" workbookViewId="0">
+      <selection activeCell="AV154" sqref="AV154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2552,17 +2549,17 @@
       </c>
       <c r="BE8" s="11"/>
       <c r="BG8" s="11" t="s">
-        <v>506</v>
+        <v>426</v>
       </c>
       <c r="BH8" s="11"/>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="11" t="s">
-        <v>514</v>
+        <v>434</v>
       </c>
       <c r="BK8" s="11"/>
       <c r="BL8" s="2"/>
       <c r="BM8" s="11" t="s">
-        <v>512</v>
+        <v>432</v>
       </c>
       <c r="BN8" s="11"/>
       <c r="BP8" s="11" t="s">
@@ -2584,11 +2581,11 @@
       <c r="CD8" s="11"/>
       <c r="CE8" s="11"/>
       <c r="CG8" s="11" t="s">
-        <v>586</v>
+        <v>506</v>
       </c>
       <c r="CH8" s="11"/>
       <c r="CJ8" s="11" t="s">
-        <v>591</v>
+        <v>511</v>
       </c>
       <c r="CK8" s="11"/>
       <c r="CL8" s="11"/>
@@ -2605,7 +2602,7 @@
       <c r="CW8" s="11"/>
       <c r="CX8" s="11"/>
       <c r="CZ8" s="11" t="s">
-        <v>592</v>
+        <v>512</v>
       </c>
       <c r="DA8" s="11"/>
       <c r="DB8" s="11"/>
@@ -2755,25 +2752,25 @@
         <v>365</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>507</v>
+        <v>427</v>
       </c>
       <c r="BH9" t="s">
-        <v>506</v>
+        <v>426</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>515</v>
+        <v>435</v>
       </c>
       <c r="BM9" s="1" t="s">
-        <v>513</v>
+        <v>433</v>
       </c>
       <c r="BN9" t="s">
-        <v>512</v>
+        <v>432</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>501</v>
+        <v>421</v>
       </c>
       <c r="BQ9" t="s">
-        <v>502</v>
+        <v>422</v>
       </c>
       <c r="BR9" s="8" t="s">
         <v>8</v>
@@ -2791,40 +2788,40 @@
         <v>194</v>
       </c>
       <c r="BW9" t="s">
-        <v>506</v>
+        <v>426</v>
       </c>
       <c r="BX9" t="s">
-        <v>514</v>
+        <v>434</v>
       </c>
       <c r="BY9" t="s">
-        <v>567</v>
+        <v>487</v>
       </c>
       <c r="BZ9" t="s">
-        <v>566</v>
+        <v>486</v>
       </c>
       <c r="CA9" s="8" t="s">
         <v>212</v>
       </c>
       <c r="CB9" t="s">
-        <v>503</v>
+        <v>423</v>
       </c>
       <c r="CC9" t="s">
-        <v>504</v>
+        <v>424</v>
       </c>
       <c r="CD9" t="s">
-        <v>570</v>
+        <v>490</v>
       </c>
       <c r="CE9" t="s">
-        <v>505</v>
+        <v>425</v>
       </c>
       <c r="CG9" s="1" t="s">
-        <v>572</v>
+        <v>492</v>
       </c>
       <c r="CH9" t="s">
-        <v>586</v>
+        <v>506</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>571</v>
+        <v>491</v>
       </c>
       <c r="CK9" s="1" t="s">
         <v>8</v>
@@ -2839,37 +2836,37 @@
         <v>208</v>
       </c>
       <c r="CO9" s="1" t="s">
-        <v>572</v>
+        <v>492</v>
       </c>
       <c r="CP9" t="s">
-        <v>583</v>
+        <v>503</v>
       </c>
       <c r="CQ9" t="s">
-        <v>577</v>
+        <v>497</v>
       </c>
       <c r="CR9" t="s">
-        <v>574</v>
+        <v>494</v>
       </c>
       <c r="CS9" t="s">
-        <v>578</v>
+        <v>498</v>
       </c>
       <c r="CT9" t="s">
-        <v>576</v>
+        <v>496</v>
       </c>
       <c r="CU9" t="s">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="CV9" t="s">
-        <v>502</v>
+        <v>422</v>
       </c>
       <c r="CW9" t="s">
-        <v>505</v>
+        <v>425</v>
       </c>
       <c r="CX9" t="s">
-        <v>588</v>
+        <v>508</v>
       </c>
       <c r="CZ9" s="1" t="s">
-        <v>584</v>
+        <v>504</v>
       </c>
       <c r="DA9" s="1" t="s">
         <v>8</v>
@@ -2884,22 +2881,22 @@
         <v>208</v>
       </c>
       <c r="DE9" t="s">
-        <v>574</v>
+        <v>494</v>
       </c>
       <c r="DF9" t="s">
-        <v>578</v>
+        <v>498</v>
       </c>
       <c r="DG9" t="s">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="DH9" t="s">
-        <v>502</v>
+        <v>422</v>
       </c>
       <c r="DI9" t="s">
-        <v>505</v>
+        <v>425</v>
       </c>
       <c r="DJ9" t="s">
-        <v>589</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:114" x14ac:dyDescent="0.2">
@@ -2977,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="AV10" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ10" s="1">
         <v>1</v>
@@ -2998,19 +2995,19 @@
         <v>1</v>
       </c>
       <c r="BH10" t="s">
-        <v>508</v>
+        <v>428</v>
       </c>
       <c r="BJ10" s="1">
         <v>1</v>
       </c>
       <c r="BK10" t="s">
-        <v>565</v>
+        <v>485</v>
       </c>
       <c r="BM10" s="1">
         <v>1</v>
       </c>
       <c r="BN10" t="s">
-        <v>509</v>
+        <v>429</v>
       </c>
       <c r="BP10" s="1">
         <v>1</v>
@@ -3025,7 +3022,7 @@
       </c>
       <c r="BV10" s="8"/>
       <c r="BW10" t="s">
-        <v>568</v>
+        <v>488</v>
       </c>
       <c r="BX10" t="s">
         <v>227</v>
@@ -3061,22 +3058,22 @@
       <c r="CN10" s="1"/>
       <c r="CO10" s="1"/>
       <c r="CP10" t="s">
-        <v>575</v>
+        <v>495</v>
       </c>
       <c r="CQ10" t="s">
         <v>227</v>
       </c>
       <c r="CR10" t="s">
-        <v>575</v>
+        <v>495</v>
       </c>
       <c r="CS10" t="s">
-        <v>579</v>
+        <v>499</v>
       </c>
       <c r="CT10" t="s">
-        <v>575</v>
+        <v>495</v>
       </c>
       <c r="CU10" t="s">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="CW10">
         <v>0.4</v>
@@ -3088,13 +3085,13 @@
         <v>1</v>
       </c>
       <c r="DE10" t="s">
-        <v>575</v>
+        <v>495</v>
       </c>
       <c r="DF10" t="s">
         <v>227</v>
       </c>
       <c r="DG10" t="s">
-        <v>585</v>
+        <v>505</v>
       </c>
       <c r="DJ10" t="s">
         <v>227</v>
@@ -3202,13 +3199,13 @@
         <v>2</v>
       </c>
       <c r="BK11" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="BM11" s="1">
         <v>2</v>
       </c>
       <c r="BN11" t="s">
-        <v>510</v>
+        <v>430</v>
       </c>
       <c r="BP11" s="1">
         <v>2</v>
@@ -3219,20 +3216,20 @@
       <c r="BS11" s="8"/>
       <c r="BT11" s="8"/>
       <c r="BU11" t="s">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="BV11" s="8"/>
       <c r="BW11" t="s">
-        <v>569</v>
+        <v>489</v>
       </c>
       <c r="BX11" t="s">
         <v>247</v>
       </c>
       <c r="BY11" t="s">
-        <v>513</v>
+        <v>433</v>
       </c>
       <c r="BZ11" t="s">
-        <v>513</v>
+        <v>433</v>
       </c>
       <c r="CA11" s="8"/>
       <c r="CB11" t="s">
@@ -3248,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="CH11" t="s">
-        <v>587</v>
+        <v>507</v>
       </c>
       <c r="CJ11" s="1">
         <v>2</v>
@@ -3274,7 +3271,7 @@
         <v>245</v>
       </c>
       <c r="CU11" t="s">
-        <v>581</v>
+        <v>501</v>
       </c>
       <c r="CW11">
         <v>0.45</v>
@@ -3364,7 +3361,7 @@
         <v>3</v>
       </c>
       <c r="AV12" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="AZ12" s="1">
         <v>3</v>
@@ -3391,19 +3388,19 @@
         <v>3</v>
       </c>
       <c r="BK12" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="BM12" s="1">
         <v>3</v>
       </c>
       <c r="BN12" t="s">
-        <v>511</v>
+        <v>431</v>
       </c>
       <c r="BP12" s="1">
         <v>3</v>
       </c>
       <c r="BR12" s="8" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="BS12" s="8"/>
       <c r="BT12" s="8"/>
@@ -3418,7 +3415,7 @@
       <c r="CN12" s="1"/>
       <c r="CO12" s="1"/>
       <c r="CU12" t="s">
-        <v>582</v>
+        <v>502</v>
       </c>
       <c r="CW12">
         <v>0.15</v>
@@ -3474,14 +3471,14 @@
         <v>4</v>
       </c>
       <c r="AR13" t="s">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="AS13" s="8"/>
       <c r="AU13" s="1">
         <v>4</v>
       </c>
       <c r="AV13" t="s">
-        <v>477</v>
+        <v>397</v>
       </c>
       <c r="AZ13" s="1">
         <v>4</v>
@@ -3502,13 +3499,13 @@
         <v>4</v>
       </c>
       <c r="BK13" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="BP13" s="1">
         <v>4</v>
       </c>
       <c r="BR13" s="8" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="BS13" s="8"/>
       <c r="BT13" s="8"/>
@@ -3562,14 +3559,14 @@
         <v>5</v>
       </c>
       <c r="AR14" t="s">
-        <v>561</v>
+        <v>481</v>
       </c>
       <c r="AS14" s="8"/>
       <c r="AU14" s="1">
         <v>5</v>
       </c>
       <c r="AV14" s="3" t="s">
-        <v>478</v>
+        <v>398</v>
       </c>
       <c r="AZ14" s="1">
         <v>5</v>
@@ -3590,13 +3587,13 @@
         <v>5</v>
       </c>
       <c r="BK14" t="s">
-        <v>563</v>
+        <v>483</v>
       </c>
       <c r="BP14" s="1">
         <v>5</v>
       </c>
       <c r="BR14" s="8" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="BS14" s="8"/>
       <c r="BT14" s="8"/>
@@ -3644,14 +3641,14 @@
         <v>6</v>
       </c>
       <c r="AR15" t="s">
-        <v>562</v>
+        <v>482</v>
       </c>
       <c r="AS15" s="8"/>
       <c r="AU15" s="1">
         <v>6</v>
       </c>
       <c r="AV15" s="3" t="s">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="AZ15" s="1">
         <v>6</v>
@@ -3672,7 +3669,7 @@
         <v>6</v>
       </c>
       <c r="BK15" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="BP15" s="1">
         <v>6</v>
@@ -3733,7 +3730,7 @@
         <v>7</v>
       </c>
       <c r="AV16" s="3" t="s">
-        <v>498</v>
+        <v>418</v>
       </c>
       <c r="AZ16" s="1">
         <v>7</v>
@@ -3754,7 +3751,7 @@
         <v>7</v>
       </c>
       <c r="BK16" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="BP16" s="1">
         <v>7</v>
@@ -3815,7 +3812,7 @@
         <v>8</v>
       </c>
       <c r="AV17" s="3" t="s">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="AZ17" s="1">
         <v>8</v>
@@ -3836,7 +3833,7 @@
         <v>8</v>
       </c>
       <c r="BK17" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
       <c r="BP17" s="1">
         <v>8</v>
@@ -3897,7 +3894,7 @@
         <v>9</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ18" s="1">
         <v>9</v>
@@ -4109,7 +4106,7 @@
         <v>379</v>
       </c>
       <c r="AS21" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ21" s="1">
         <v>12</v>
@@ -4181,7 +4178,7 @@
         <v>386</v>
       </c>
       <c r="AS22" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ22" s="1">
         <v>13</v>
@@ -4253,7 +4250,7 @@
         <v>387</v>
       </c>
       <c r="AS23" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ23" s="1">
         <v>14</v>
@@ -4325,7 +4322,7 @@
         <v>388</v>
       </c>
       <c r="AS24" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ24" s="1">
         <v>15</v>
@@ -4397,7 +4394,7 @@
         <v>389</v>
       </c>
       <c r="AS25" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ25" s="1">
         <v>16</v>
@@ -4466,10 +4463,10 @@
         <v>17</v>
       </c>
       <c r="AR26" t="s">
-        <v>516</v>
+        <v>436</v>
       </c>
       <c r="AS26" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ26" s="1">
         <v>17</v>
@@ -4538,10 +4535,10 @@
         <v>18</v>
       </c>
       <c r="AR27" t="s">
-        <v>517</v>
+        <v>437</v>
       </c>
       <c r="AS27" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ27" s="1">
         <v>18</v>
@@ -4610,10 +4607,10 @@
         <v>19</v>
       </c>
       <c r="AR28" t="s">
-        <v>518</v>
+        <v>438</v>
       </c>
       <c r="AS28" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ28" s="1">
         <v>19</v>
@@ -4682,10 +4679,10 @@
         <v>20</v>
       </c>
       <c r="AR29" t="s">
-        <v>519</v>
+        <v>439</v>
       </c>
       <c r="AS29" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ29" s="1">
         <v>20</v>
@@ -4754,10 +4751,10 @@
         <v>21</v>
       </c>
       <c r="AR30" t="s">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="AS30" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ30" s="1">
         <v>21</v>
@@ -4820,10 +4817,10 @@
         <v>22</v>
       </c>
       <c r="AR31" t="s">
-        <v>521</v>
+        <v>441</v>
       </c>
       <c r="AS31" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ31" s="1">
         <v>22</v>
@@ -4883,10 +4880,10 @@
         <v>23</v>
       </c>
       <c r="AR32" t="s">
-        <v>522</v>
+        <v>442</v>
       </c>
       <c r="AS32" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ32" s="1">
         <v>23</v>
@@ -4946,10 +4943,10 @@
         <v>24</v>
       </c>
       <c r="AR33" t="s">
-        <v>523</v>
+        <v>443</v>
       </c>
       <c r="AS33" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ33" s="1">
         <v>24</v>
@@ -5009,10 +5006,10 @@
         <v>25</v>
       </c>
       <c r="AR34" t="s">
-        <v>524</v>
+        <v>444</v>
       </c>
       <c r="AS34" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ34" s="1">
         <v>25</v>
@@ -5072,10 +5069,10 @@
         <v>26</v>
       </c>
       <c r="AR35" t="s">
-        <v>525</v>
+        <v>445</v>
       </c>
       <c r="AS35" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ35" s="1">
         <v>26</v>
@@ -5128,10 +5125,10 @@
         <v>27</v>
       </c>
       <c r="AR36" t="s">
-        <v>526</v>
+        <v>446</v>
       </c>
       <c r="AS36" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ36" s="1">
         <v>27</v>
@@ -5184,10 +5181,10 @@
         <v>28</v>
       </c>
       <c r="AR37" t="s">
-        <v>527</v>
+        <v>447</v>
       </c>
       <c r="AS37" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ37" s="1">
         <v>28</v>
@@ -5199,7 +5196,7 @@
         <v>317</v>
       </c>
       <c r="BP37" s="1" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:79" x14ac:dyDescent="0.2">
@@ -5240,10 +5237,10 @@
         <v>29</v>
       </c>
       <c r="AR38" t="s">
-        <v>528</v>
+        <v>448</v>
       </c>
       <c r="AS38" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ38" s="1">
         <v>29</v>
@@ -5255,7 +5252,7 @@
         <v>317</v>
       </c>
       <c r="BP38" s="1" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:79" x14ac:dyDescent="0.2">
@@ -5296,10 +5293,10 @@
         <v>30</v>
       </c>
       <c r="AR39" t="s">
-        <v>529</v>
+        <v>449</v>
       </c>
       <c r="AS39" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ39" s="1">
         <v>30</v>
@@ -5311,7 +5308,7 @@
         <v>317</v>
       </c>
       <c r="BP39" s="1" t="s">
-        <v>564</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:79" x14ac:dyDescent="0.2">
@@ -5346,10 +5343,10 @@
         <v>31</v>
       </c>
       <c r="AR40" t="s">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="AS40" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ40" s="1">
         <v>31</v>
@@ -5393,10 +5390,10 @@
         <v>32</v>
       </c>
       <c r="AR41" t="s">
-        <v>531</v>
+        <v>451</v>
       </c>
       <c r="AS41" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ41" s="1">
         <v>32</v>
@@ -5440,10 +5437,10 @@
         <v>33</v>
       </c>
       <c r="AR42" t="s">
-        <v>532</v>
+        <v>452</v>
       </c>
       <c r="AS42" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ42" s="1">
         <v>33</v>
@@ -5487,10 +5484,10 @@
         <v>34</v>
       </c>
       <c r="AR43" t="s">
-        <v>533</v>
+        <v>453</v>
       </c>
       <c r="AS43" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ43" s="1">
         <v>34</v>
@@ -5534,10 +5531,10 @@
         <v>35</v>
       </c>
       <c r="AR44" t="s">
-        <v>534</v>
+        <v>454</v>
       </c>
       <c r="AS44" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ44" s="1">
         <v>35</v>
@@ -5581,10 +5578,10 @@
         <v>36</v>
       </c>
       <c r="AR45" t="s">
-        <v>535</v>
+        <v>455</v>
       </c>
       <c r="AS45" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ45" s="1">
         <v>36</v>
@@ -5628,10 +5625,10 @@
         <v>37</v>
       </c>
       <c r="AR46" t="s">
-        <v>528</v>
+        <v>448</v>
       </c>
       <c r="AS46" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ46" s="1">
         <v>37</v>
@@ -5675,10 +5672,10 @@
         <v>38</v>
       </c>
       <c r="AR47" t="s">
-        <v>536</v>
+        <v>456</v>
       </c>
       <c r="AS47" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ47" s="1">
         <v>38</v>
@@ -5722,10 +5719,10 @@
         <v>39</v>
       </c>
       <c r="AR48" t="s">
-        <v>537</v>
+        <v>457</v>
       </c>
       <c r="AS48" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ48" s="1">
         <v>39</v>
@@ -5769,10 +5766,10 @@
         <v>40</v>
       </c>
       <c r="AR49" t="s">
-        <v>538</v>
+        <v>458</v>
       </c>
       <c r="AS49" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ49" s="1">
         <v>40</v>
@@ -5816,10 +5813,10 @@
         <v>41</v>
       </c>
       <c r="AR50" t="s">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="AS50" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ50" s="1">
         <v>41</v>
@@ -5863,10 +5860,10 @@
         <v>42</v>
       </c>
       <c r="AR51" t="s">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="AS51" s="9" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="AZ51" s="1">
         <v>42</v>
@@ -5910,10 +5907,10 @@
         <v>43</v>
       </c>
       <c r="AR52" t="s">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="AS52" s="8" t="s">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="AZ52" s="1">
         <v>43</v>
@@ -5957,7 +5954,7 @@
         <v>44</v>
       </c>
       <c r="AR53" t="s">
-        <v>541</v>
+        <v>461</v>
       </c>
       <c r="AS53" s="9" t="s">
         <v>244</v>
@@ -6004,7 +6001,7 @@
         <v>45</v>
       </c>
       <c r="AR54" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="AS54" s="9" t="s">
         <v>244</v>
@@ -6051,7 +6048,7 @@
         <v>46</v>
       </c>
       <c r="AR55" t="s">
-        <v>543</v>
+        <v>463</v>
       </c>
       <c r="AS55" s="9" t="s">
         <v>244</v>
@@ -6098,7 +6095,7 @@
         <v>47</v>
       </c>
       <c r="AR56" t="s">
-        <v>544</v>
+        <v>464</v>
       </c>
       <c r="AS56" s="9" t="s">
         <v>244</v>
@@ -6145,7 +6142,7 @@
         <v>48</v>
       </c>
       <c r="AR57" t="s">
-        <v>545</v>
+        <v>465</v>
       </c>
       <c r="AS57" s="9" t="s">
         <v>244</v>
@@ -6192,7 +6189,7 @@
         <v>49</v>
       </c>
       <c r="AR58" t="s">
-        <v>546</v>
+        <v>466</v>
       </c>
       <c r="AS58" s="9" t="s">
         <v>244</v>
@@ -6239,7 +6236,7 @@
         <v>50</v>
       </c>
       <c r="AR59" t="s">
-        <v>547</v>
+        <v>467</v>
       </c>
       <c r="AS59" s="9" t="s">
         <v>244</v>
@@ -6286,7 +6283,7 @@
         <v>51</v>
       </c>
       <c r="AR60" t="s">
-        <v>548</v>
+        <v>468</v>
       </c>
       <c r="AS60" s="9" t="s">
         <v>244</v>
@@ -6333,7 +6330,7 @@
         <v>52</v>
       </c>
       <c r="AR61" t="s">
-        <v>549</v>
+        <v>469</v>
       </c>
       <c r="AS61" s="9" t="s">
         <v>244</v>
@@ -6380,7 +6377,7 @@
         <v>53</v>
       </c>
       <c r="AR62" t="s">
-        <v>550</v>
+        <v>470</v>
       </c>
       <c r="AS62" s="9" t="s">
         <v>244</v>
@@ -6427,7 +6424,7 @@
         <v>54</v>
       </c>
       <c r="AR63" t="s">
-        <v>551</v>
+        <v>471</v>
       </c>
       <c r="AS63" s="9" t="s">
         <v>244</v>
@@ -6474,7 +6471,7 @@
         <v>55</v>
       </c>
       <c r="AR64" t="s">
-        <v>552</v>
+        <v>472</v>
       </c>
       <c r="AS64" s="9" t="s">
         <v>244</v>
@@ -6521,7 +6518,7 @@
         <v>56</v>
       </c>
       <c r="AR65" t="s">
-        <v>553</v>
+        <v>473</v>
       </c>
       <c r="AS65" s="9" t="s">
         <v>244</v>
@@ -6568,10 +6565,10 @@
         <v>57</v>
       </c>
       <c r="AR66" t="s">
-        <v>554</v>
+        <v>474</v>
       </c>
       <c r="AS66" s="8" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="AZ66" s="1">
         <v>57</v>
@@ -6615,10 +6612,10 @@
         <v>58</v>
       </c>
       <c r="AR67" t="s">
-        <v>555</v>
+        <v>475</v>
       </c>
       <c r="AS67" s="8" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="AZ67" s="1">
         <v>58</v>
@@ -6662,10 +6659,10 @@
         <v>59</v>
       </c>
       <c r="AR68" t="s">
-        <v>556</v>
+        <v>476</v>
       </c>
       <c r="AS68" s="8" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="AZ68" s="1">
         <v>59</v>
@@ -6709,10 +6706,10 @@
         <v>60</v>
       </c>
       <c r="AR69" t="s">
-        <v>557</v>
+        <v>477</v>
       </c>
       <c r="AS69" s="8" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="AZ69" s="1">
         <v>60</v>
@@ -6756,10 +6753,10 @@
         <v>61</v>
       </c>
       <c r="AR70" t="s">
-        <v>558</v>
+        <v>478</v>
       </c>
       <c r="AS70" s="8" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="AZ70" s="1">
         <v>61</v>
@@ -6803,10 +6800,10 @@
         <v>62</v>
       </c>
       <c r="AR71" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
       <c r="AS71" s="8" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="AZ71" s="1">
         <v>62</v>
@@ -6850,10 +6847,10 @@
         <v>63</v>
       </c>
       <c r="AR72" s="7" t="s">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="AS72" s="8" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="AZ72" s="1">
         <v>63</v>
@@ -6897,10 +6894,10 @@
         <v>64</v>
       </c>
       <c r="AR73" s="7" t="s">
-        <v>481</v>
+        <v>401</v>
       </c>
       <c r="AS73" s="8" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="AZ73" s="1">
         <v>64</v>
@@ -6944,10 +6941,10 @@
         <v>65</v>
       </c>
       <c r="AR74" s="3" t="s">
-        <v>477</v>
+        <v>397</v>
       </c>
       <c r="AS74" s="9" t="s">
-        <v>477</v>
+        <v>397</v>
       </c>
       <c r="AZ74" s="1">
         <v>65</v>
@@ -6991,10 +6988,10 @@
         <v>66</v>
       </c>
       <c r="AR75" s="3" t="s">
-        <v>478</v>
+        <v>398</v>
       </c>
       <c r="AS75" s="9" t="s">
-        <v>478</v>
+        <v>398</v>
       </c>
       <c r="AZ75" s="1">
         <v>66</v>
@@ -7038,10 +7035,10 @@
         <v>67</v>
       </c>
       <c r="AR76" s="3" t="s">
-        <v>482</v>
+        <v>402</v>
       </c>
       <c r="AS76" s="9" t="s">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="AZ76" s="1">
         <v>67</v>
@@ -7085,10 +7082,10 @@
         <v>68</v>
       </c>
       <c r="AR77" s="3" t="s">
-        <v>483</v>
+        <v>403</v>
       </c>
       <c r="AS77" s="9" t="s">
-        <v>479</v>
+        <v>399</v>
       </c>
       <c r="AZ77" s="1">
         <v>68</v>
@@ -7132,10 +7129,10 @@
         <v>69</v>
       </c>
       <c r="AR78" s="3" t="s">
-        <v>498</v>
+        <v>418</v>
       </c>
       <c r="AS78" s="9" t="s">
-        <v>498</v>
+        <v>418</v>
       </c>
       <c r="AZ78" s="1">
         <v>69</v>
@@ -7179,10 +7176,10 @@
         <v>70</v>
       </c>
       <c r="AR79" t="s">
-        <v>485</v>
+        <v>405</v>
       </c>
       <c r="AS79" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ79" s="1">
         <v>70</v>
@@ -7226,10 +7223,10 @@
         <v>71</v>
       </c>
       <c r="AR80" t="s">
-        <v>486</v>
+        <v>406</v>
       </c>
       <c r="AS80" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ80" s="1">
         <v>71</v>
@@ -7273,10 +7270,10 @@
         <v>72</v>
       </c>
       <c r="AR81" t="s">
-        <v>487</v>
+        <v>407</v>
       </c>
       <c r="AS81" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ81" s="1">
         <v>72</v>
@@ -7320,10 +7317,10 @@
         <v>73</v>
       </c>
       <c r="AR82" t="s">
-        <v>488</v>
+        <v>408</v>
       </c>
       <c r="AS82" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ82" s="1">
         <v>73</v>
@@ -7367,10 +7364,10 @@
         <v>74</v>
       </c>
       <c r="AR83" t="s">
-        <v>489</v>
+        <v>409</v>
       </c>
       <c r="AS83" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ83" s="1">
         <v>74</v>
@@ -7414,10 +7411,10 @@
         <v>75</v>
       </c>
       <c r="AR84" t="s">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="AS84" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ84" s="1">
         <v>75</v>
@@ -7461,10 +7458,10 @@
         <v>76</v>
       </c>
       <c r="AR85" t="s">
-        <v>491</v>
+        <v>411</v>
       </c>
       <c r="AS85" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ85" s="1">
         <v>76</v>
@@ -7508,10 +7505,10 @@
         <v>77</v>
       </c>
       <c r="AR86" t="s">
-        <v>492</v>
+        <v>412</v>
       </c>
       <c r="AS86" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ86" s="1">
         <v>77</v>
@@ -7555,10 +7552,10 @@
         <v>78</v>
       </c>
       <c r="AR87" t="s">
-        <v>493</v>
+        <v>413</v>
       </c>
       <c r="AS87" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ87" s="1">
         <v>78</v>
@@ -7602,10 +7599,10 @@
         <v>79</v>
       </c>
       <c r="AR88" t="s">
-        <v>494</v>
+        <v>414</v>
       </c>
       <c r="AS88" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ88" s="1">
         <v>79</v>
@@ -7651,10 +7648,10 @@
         <v>80</v>
       </c>
       <c r="AR89" t="s">
-        <v>495</v>
+        <v>415</v>
       </c>
       <c r="AS89" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ89" s="1">
         <v>80</v>
@@ -7710,10 +7707,10 @@
         <v>81</v>
       </c>
       <c r="AR90" t="s">
-        <v>496</v>
+        <v>416</v>
       </c>
       <c r="AS90" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ90" s="1">
         <v>81</v>
@@ -7769,10 +7766,10 @@
         <v>82</v>
       </c>
       <c r="AR91" t="s">
-        <v>497</v>
+        <v>417</v>
       </c>
       <c r="AS91" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ91" s="1">
         <v>82</v>
@@ -7816,10 +7813,10 @@
         <v>83</v>
       </c>
       <c r="AR92" t="s">
-        <v>491</v>
+        <v>411</v>
       </c>
       <c r="AS92" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ92" s="1">
         <v>83</v>
@@ -7863,10 +7860,10 @@
         <v>84</v>
       </c>
       <c r="AR93" t="s">
-        <v>484</v>
+        <v>404</v>
       </c>
       <c r="AS93" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="AZ93" s="1">
         <v>84</v>
@@ -7957,7 +7954,7 @@
         <v>86</v>
       </c>
       <c r="AR95" t="s">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="AS95" s="8"/>
       <c r="AZ95" s="1">
@@ -8002,7 +7999,7 @@
         <v>87</v>
       </c>
       <c r="AR96" t="s">
-        <v>391</v>
+        <v>522</v>
       </c>
       <c r="AS96" s="8"/>
       <c r="AZ96" s="1">
@@ -8047,7 +8044,7 @@
         <v>88</v>
       </c>
       <c r="AR97" t="s">
-        <v>392</v>
+        <v>523</v>
       </c>
       <c r="AS97" s="8"/>
       <c r="AZ97" s="1">
@@ -8092,7 +8089,7 @@
         <v>89</v>
       </c>
       <c r="AR98" t="s">
-        <v>393</v>
+        <v>524</v>
       </c>
       <c r="AS98" s="8"/>
       <c r="AZ98" s="1">
@@ -8137,7 +8134,7 @@
         <v>90</v>
       </c>
       <c r="AR99" t="s">
-        <v>394</v>
+        <v>525</v>
       </c>
       <c r="AS99" s="8"/>
       <c r="AZ99" s="1">
@@ -8182,7 +8179,7 @@
         <v>91</v>
       </c>
       <c r="AR100" t="s">
-        <v>395</v>
+        <v>526</v>
       </c>
       <c r="AS100" s="8"/>
       <c r="AZ100" s="1">
@@ -8227,7 +8224,7 @@
         <v>92</v>
       </c>
       <c r="AR101" t="s">
-        <v>396</v>
+        <v>527</v>
       </c>
       <c r="AS101" s="8"/>
       <c r="AZ101" s="1">
@@ -8272,7 +8269,7 @@
         <v>93</v>
       </c>
       <c r="AR102" t="s">
-        <v>397</v>
+        <v>528</v>
       </c>
       <c r="AS102" s="8"/>
       <c r="AZ102" s="1">
@@ -8317,7 +8314,7 @@
         <v>94</v>
       </c>
       <c r="AR103" t="s">
-        <v>398</v>
+        <v>529</v>
       </c>
       <c r="AS103" s="8"/>
       <c r="AZ103" s="1">
@@ -8363,7 +8360,7 @@
         <v>95</v>
       </c>
       <c r="AR104" t="s">
-        <v>399</v>
+        <v>530</v>
       </c>
       <c r="AS104" s="8"/>
       <c r="AZ104" s="1">
@@ -8408,7 +8405,7 @@
         <v>96</v>
       </c>
       <c r="AR105" t="s">
-        <v>400</v>
+        <v>531</v>
       </c>
       <c r="AS105" s="8"/>
       <c r="AZ105" s="1">
@@ -8453,7 +8450,7 @@
         <v>97</v>
       </c>
       <c r="AR106" t="s">
-        <v>401</v>
+        <v>532</v>
       </c>
       <c r="AS106" s="8"/>
       <c r="AZ106" s="1">
@@ -8498,7 +8495,7 @@
         <v>98</v>
       </c>
       <c r="AR107" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="AS107" s="8"/>
       <c r="AZ107" s="1">
@@ -8544,7 +8541,7 @@
         <v>99</v>
       </c>
       <c r="AR108" t="s">
-        <v>403</v>
+        <v>533</v>
       </c>
       <c r="AS108" s="8"/>
       <c r="AZ108" s="1">
@@ -8590,7 +8587,7 @@
         <v>100</v>
       </c>
       <c r="AR109" t="s">
-        <v>404</v>
+        <v>534</v>
       </c>
       <c r="AS109" s="8"/>
     </row>
@@ -8626,7 +8623,7 @@
         <v>101</v>
       </c>
       <c r="AR110" t="s">
-        <v>405</v>
+        <v>535</v>
       </c>
       <c r="AS110" s="8"/>
     </row>
@@ -8662,7 +8659,7 @@
         <v>102</v>
       </c>
       <c r="AR111" t="s">
-        <v>406</v>
+        <v>536</v>
       </c>
       <c r="AS111" s="8"/>
     </row>
@@ -8698,7 +8695,7 @@
         <v>103</v>
       </c>
       <c r="AR112" t="s">
-        <v>407</v>
+        <v>537</v>
       </c>
       <c r="AS112" s="8"/>
       <c r="BA112" s="7"/>
@@ -8736,7 +8733,7 @@
         <v>104</v>
       </c>
       <c r="AR113" t="s">
-        <v>408</v>
+        <v>538</v>
       </c>
       <c r="AS113" s="8"/>
     </row>
@@ -8772,7 +8769,7 @@
         <v>105</v>
       </c>
       <c r="AR114" t="s">
-        <v>409</v>
+        <v>539</v>
       </c>
       <c r="AS114" s="8"/>
     </row>
@@ -8808,7 +8805,7 @@
         <v>106</v>
       </c>
       <c r="AR115" t="s">
-        <v>410</v>
+        <v>540</v>
       </c>
       <c r="AS115" s="8"/>
     </row>
@@ -8844,7 +8841,7 @@
         <v>107</v>
       </c>
       <c r="AR116" t="s">
-        <v>411</v>
+        <v>541</v>
       </c>
       <c r="AS116" s="8"/>
     </row>
@@ -8880,7 +8877,7 @@
         <v>108</v>
       </c>
       <c r="AR117" t="s">
-        <v>412</v>
+        <v>542</v>
       </c>
       <c r="AS117" s="8"/>
     </row>
@@ -8916,7 +8913,7 @@
         <v>109</v>
       </c>
       <c r="AR118" t="s">
-        <v>413</v>
+        <v>543</v>
       </c>
       <c r="AS118" s="8"/>
     </row>
@@ -8952,7 +8949,7 @@
         <v>110</v>
       </c>
       <c r="AR119" t="s">
-        <v>414</v>
+        <v>544</v>
       </c>
       <c r="AS119" s="8"/>
     </row>
@@ -8988,7 +8985,7 @@
         <v>111</v>
       </c>
       <c r="AR120" t="s">
-        <v>415</v>
+        <v>545</v>
       </c>
       <c r="AS120" s="8"/>
     </row>
@@ -9024,7 +9021,7 @@
         <v>112</v>
       </c>
       <c r="AR121" t="s">
-        <v>416</v>
+        <v>546</v>
       </c>
       <c r="AS121" s="8"/>
     </row>
@@ -9060,7 +9057,7 @@
         <v>113</v>
       </c>
       <c r="AR122" t="s">
-        <v>417</v>
+        <v>547</v>
       </c>
       <c r="AS122" s="8"/>
     </row>
@@ -9096,7 +9093,7 @@
         <v>114</v>
       </c>
       <c r="AR123" t="s">
-        <v>418</v>
+        <v>548</v>
       </c>
       <c r="AS123" s="8"/>
     </row>
@@ -9132,7 +9129,7 @@
         <v>115</v>
       </c>
       <c r="AR124" t="s">
-        <v>419</v>
+        <v>549</v>
       </c>
       <c r="AS124" s="8"/>
     </row>
@@ -9168,7 +9165,7 @@
         <v>116</v>
       </c>
       <c r="AR125" t="s">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="AS125" s="8"/>
     </row>
@@ -9204,7 +9201,7 @@
         <v>117</v>
       </c>
       <c r="AR126" t="s">
-        <v>421</v>
+        <v>551</v>
       </c>
       <c r="AS126" s="8"/>
     </row>
@@ -9240,7 +9237,7 @@
         <v>118</v>
       </c>
       <c r="AR127" t="s">
-        <v>422</v>
+        <v>552</v>
       </c>
       <c r="AS127" s="8"/>
     </row>
@@ -9276,7 +9273,7 @@
         <v>119</v>
       </c>
       <c r="AR128" t="s">
-        <v>423</v>
+        <v>553</v>
       </c>
       <c r="AS128" s="8"/>
     </row>
@@ -9312,7 +9309,7 @@
         <v>120</v>
       </c>
       <c r="AR129" t="s">
-        <v>424</v>
+        <v>554</v>
       </c>
       <c r="AS129" s="8"/>
     </row>
@@ -9348,7 +9345,7 @@
         <v>121</v>
       </c>
       <c r="AR130" t="s">
-        <v>425</v>
+        <v>555</v>
       </c>
       <c r="AS130" s="8"/>
     </row>
@@ -9384,7 +9381,7 @@
         <v>122</v>
       </c>
       <c r="AR131" t="s">
-        <v>426</v>
+        <v>556</v>
       </c>
       <c r="AS131" s="8"/>
     </row>
@@ -9420,7 +9417,7 @@
         <v>123</v>
       </c>
       <c r="AR132" t="s">
-        <v>427</v>
+        <v>557</v>
       </c>
       <c r="AS132" s="8"/>
     </row>
@@ -9456,7 +9453,7 @@
         <v>124</v>
       </c>
       <c r="AR133" t="s">
-        <v>428</v>
+        <v>558</v>
       </c>
       <c r="AS133" s="8"/>
     </row>
@@ -9492,7 +9489,7 @@
         <v>125</v>
       </c>
       <c r="AR134" t="s">
-        <v>429</v>
+        <v>559</v>
       </c>
       <c r="AS134" s="8"/>
     </row>
@@ -9528,7 +9525,7 @@
         <v>126</v>
       </c>
       <c r="AR135" t="s">
-        <v>430</v>
+        <v>560</v>
       </c>
       <c r="AS135" s="8"/>
     </row>
@@ -9564,7 +9561,7 @@
         <v>127</v>
       </c>
       <c r="AR136" t="s">
-        <v>431</v>
+        <v>561</v>
       </c>
       <c r="AS136" s="8"/>
     </row>
@@ -9600,7 +9597,7 @@
         <v>128</v>
       </c>
       <c r="AR137" t="s">
-        <v>432</v>
+        <v>562</v>
       </c>
       <c r="AS137" s="8"/>
     </row>
@@ -9636,7 +9633,7 @@
         <v>129</v>
       </c>
       <c r="AR138" t="s">
-        <v>433</v>
+        <v>563</v>
       </c>
       <c r="AS138" s="8"/>
     </row>
@@ -9672,7 +9669,7 @@
         <v>130</v>
       </c>
       <c r="AR139" t="s">
-        <v>434</v>
+        <v>564</v>
       </c>
       <c r="AS139" s="8"/>
     </row>
@@ -9708,7 +9705,7 @@
         <v>131</v>
       </c>
       <c r="AR140" t="s">
-        <v>435</v>
+        <v>565</v>
       </c>
       <c r="AS140" s="8"/>
     </row>
@@ -9744,7 +9741,7 @@
         <v>132</v>
       </c>
       <c r="AR141" t="s">
-        <v>436</v>
+        <v>566</v>
       </c>
       <c r="AS141" s="8"/>
     </row>
@@ -9780,7 +9777,7 @@
         <v>133</v>
       </c>
       <c r="AR142" t="s">
-        <v>437</v>
+        <v>567</v>
       </c>
       <c r="AS142" s="8"/>
     </row>
@@ -9816,7 +9813,7 @@
         <v>134</v>
       </c>
       <c r="AR143" t="s">
-        <v>438</v>
+        <v>568</v>
       </c>
       <c r="AS143" s="8"/>
     </row>
@@ -9852,7 +9849,7 @@
         <v>135</v>
       </c>
       <c r="AR144" t="s">
-        <v>439</v>
+        <v>569</v>
       </c>
       <c r="AS144" s="8"/>
     </row>
@@ -9888,7 +9885,7 @@
         <v>136</v>
       </c>
       <c r="AR145" t="s">
-        <v>440</v>
+        <v>570</v>
       </c>
       <c r="AS145" s="8"/>
     </row>
@@ -9924,7 +9921,7 @@
         <v>137</v>
       </c>
       <c r="AR146" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AS146" s="8"/>
     </row>
@@ -9960,7 +9957,7 @@
         <v>138</v>
       </c>
       <c r="AR147" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="AS147" s="8"/>
     </row>
@@ -9996,7 +9993,7 @@
         <v>139</v>
       </c>
       <c r="AR148" t="s">
-        <v>443</v>
+        <v>571</v>
       </c>
       <c r="AS148" s="8"/>
     </row>
@@ -10032,7 +10029,7 @@
         <v>140</v>
       </c>
       <c r="AR149" t="s">
-        <v>444</v>
+        <v>572</v>
       </c>
       <c r="AS149" s="8"/>
     </row>
@@ -10068,7 +10065,7 @@
         <v>141</v>
       </c>
       <c r="AR150" t="s">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="AS150" s="8"/>
     </row>
@@ -10104,7 +10101,7 @@
         <v>142</v>
       </c>
       <c r="AR151" t="s">
-        <v>446</v>
+        <v>574</v>
       </c>
       <c r="AS151" s="8"/>
     </row>
@@ -10140,7 +10137,7 @@
         <v>143</v>
       </c>
       <c r="AR152" t="s">
-        <v>447</v>
+        <v>575</v>
       </c>
       <c r="AS152" s="8"/>
     </row>
@@ -10176,7 +10173,7 @@
         <v>144</v>
       </c>
       <c r="AR153" t="s">
-        <v>448</v>
+        <v>576</v>
       </c>
       <c r="AS153" s="8"/>
     </row>
@@ -10212,7 +10209,7 @@
         <v>145</v>
       </c>
       <c r="AR154" t="s">
-        <v>449</v>
+        <v>577</v>
       </c>
       <c r="AS154" s="8"/>
     </row>
@@ -10248,7 +10245,7 @@
         <v>146</v>
       </c>
       <c r="AR155" t="s">
-        <v>450</v>
+        <v>578</v>
       </c>
       <c r="AS155" s="8"/>
     </row>
@@ -10284,7 +10281,7 @@
         <v>147</v>
       </c>
       <c r="AR156" t="s">
-        <v>451</v>
+        <v>579</v>
       </c>
       <c r="AS156" s="8"/>
     </row>
@@ -10320,7 +10317,7 @@
         <v>148</v>
       </c>
       <c r="AR157" t="s">
-        <v>452</v>
+        <v>580</v>
       </c>
       <c r="AS157" s="8"/>
     </row>
@@ -10356,7 +10353,7 @@
         <v>149</v>
       </c>
       <c r="AR158" t="s">
-        <v>453</v>
+        <v>581</v>
       </c>
       <c r="AS158" s="8"/>
     </row>
@@ -10392,7 +10389,7 @@
         <v>150</v>
       </c>
       <c r="AR159" t="s">
-        <v>454</v>
+        <v>582</v>
       </c>
       <c r="AS159" s="8"/>
     </row>
@@ -10428,7 +10425,7 @@
         <v>151</v>
       </c>
       <c r="AR160" t="s">
-        <v>455</v>
+        <v>583</v>
       </c>
       <c r="AS160" s="8"/>
     </row>
@@ -10464,7 +10461,7 @@
         <v>152</v>
       </c>
       <c r="AR161" t="s">
-        <v>456</v>
+        <v>584</v>
       </c>
       <c r="AS161" s="8"/>
     </row>
@@ -10500,7 +10497,7 @@
         <v>153</v>
       </c>
       <c r="AR162" t="s">
-        <v>457</v>
+        <v>585</v>
       </c>
       <c r="AS162" s="8"/>
     </row>
@@ -10536,7 +10533,7 @@
         <v>154</v>
       </c>
       <c r="AR163" t="s">
-        <v>458</v>
+        <v>586</v>
       </c>
       <c r="AS163" s="8"/>
     </row>
@@ -10572,7 +10569,7 @@
         <v>155</v>
       </c>
       <c r="AR164" t="s">
-        <v>459</v>
+        <v>587</v>
       </c>
       <c r="AS164" s="8"/>
     </row>
@@ -10608,7 +10605,7 @@
         <v>156</v>
       </c>
       <c r="AR165" t="s">
-        <v>460</v>
+        <v>588</v>
       </c>
       <c r="AS165" s="8"/>
     </row>
@@ -10644,7 +10641,7 @@
         <v>157</v>
       </c>
       <c r="AR166" t="s">
-        <v>461</v>
+        <v>392</v>
       </c>
       <c r="AS166" s="8"/>
     </row>
@@ -10680,7 +10677,7 @@
         <v>158</v>
       </c>
       <c r="AR167" t="s">
-        <v>462</v>
+        <v>589</v>
       </c>
       <c r="AS167" s="8"/>
     </row>
@@ -10716,7 +10713,7 @@
         <v>159</v>
       </c>
       <c r="AR168" t="s">
-        <v>463</v>
+        <v>590</v>
       </c>
       <c r="AS168" s="8"/>
     </row>
@@ -10752,7 +10749,7 @@
         <v>160</v>
       </c>
       <c r="AR169" t="s">
-        <v>464</v>
+        <v>591</v>
       </c>
       <c r="AS169" s="8"/>
     </row>
@@ -10788,7 +10785,7 @@
         <v>161</v>
       </c>
       <c r="AR170" t="s">
-        <v>465</v>
+        <v>592</v>
       </c>
       <c r="AS170" s="8"/>
     </row>
@@ -10824,7 +10821,7 @@
         <v>162</v>
       </c>
       <c r="AR171" t="s">
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="AS171" s="8"/>
     </row>
@@ -10860,7 +10857,7 @@
         <v>163</v>
       </c>
       <c r="AR172" t="s">
-        <v>467</v>
+        <v>594</v>
       </c>
       <c r="AS172" s="8"/>
     </row>
@@ -10896,7 +10893,7 @@
         <v>164</v>
       </c>
       <c r="AR173" t="s">
-        <v>468</v>
+        <v>595</v>
       </c>
       <c r="AS173" s="8"/>
     </row>
@@ -10932,7 +10929,7 @@
         <v>165</v>
       </c>
       <c r="AR174" t="s">
-        <v>469</v>
+        <v>596</v>
       </c>
       <c r="AS174" s="8"/>
     </row>
@@ -10968,7 +10965,7 @@
         <v>166</v>
       </c>
       <c r="AR175" t="s">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="AS175" s="8"/>
     </row>
@@ -11004,7 +11001,7 @@
         <v>167</v>
       </c>
       <c r="AR176" t="s">
-        <v>471</v>
+        <v>393</v>
       </c>
       <c r="AS176" s="8"/>
     </row>
@@ -11040,7 +11037,7 @@
         <v>168</v>
       </c>
       <c r="AR177" t="s">
-        <v>472</v>
+        <v>598</v>
       </c>
       <c r="AS177" s="8"/>
     </row>
@@ -11076,7 +11073,7 @@
         <v>169</v>
       </c>
       <c r="AR178" t="s">
-        <v>473</v>
+        <v>394</v>
       </c>
       <c r="AS178" s="8"/>
     </row>
@@ -11112,7 +11109,7 @@
         <v>170</v>
       </c>
       <c r="AR179" t="s">
-        <v>474</v>
+        <v>599</v>
       </c>
       <c r="AS179" s="8"/>
     </row>
@@ -11243,6 +11240,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG8:AI8"/>
     <mergeCell ref="AK8:AL8"/>
     <mergeCell ref="CJ8:CX8"/>
     <mergeCell ref="CG8:CH8"/>
@@ -11259,7 +11257,6 @@
     <mergeCell ref="BJ8:BK8"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AG8:AI8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11271,7 +11268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA64165-0436-FF42-8A3B-26565227B56E}">
   <dimension ref="A5:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -11279,47 +11276,47 @@
   <sheetData>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>593</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>594</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>595</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>596</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>597</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>598</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>599</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>600</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>601</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
